--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_253.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_253.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,634 +488,664 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.421195652173913</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_193</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.125</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A', 'A:7', 'D:maj/F#']]</t>
+          <t>[['G:7', 'C:min', 'C:min'], ['C:min/G', 'G:7', 'C:min'], ['C/G', 'G:7', 'C'], ['C:min/G', 'G', 'C:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(20.08, 23.8)]</t>
+          <t>[['C:7', 'F:min/C', 'F:min'], ['F:min', 'C:7', 'F:min'], ['F:maj', 'C:7', 'F:maj'], ['F:min', 'C:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(245.42, 263.44)]</t>
+          <t>[('0:00:24.760000', '0:00:30.020000'), ('0:00:24.180000', '0:00:27.660000'), ('0:04:11.500000', '0:04:15.380000'), ('0:00:13.720000', '0:00:18.340000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:35.820000', '0:00:37.760000'), ('0:00:08.460000', '0:00:13.460000'), ('0:00:43.340000', '0:00:59.340000'), ('0:00:00.240000', '0:00:05.080000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2833333333333333</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C', 'C/G', 'G:7', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_150</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_25</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'D:maj/A', 'A:7', 'D:maj/F#']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(242.22, 246.98)]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(249.32, 263.44)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:00.780000', '0:00:09.740000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:43.740000', '0:00:55.620000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_31</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.07187499999999999</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C', 'C', 'G:7']]</t>
-        </is>
+          <t>isophonics_279</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_261</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3084935897435898</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C', 'C/G', 'G:7']]</t>
+          <t>[['C:maj', 'D:min7/b7', 'C:maj', 'F/5', 'C:maj', 'D:min7/b7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(7.84, 13.24)]</t>
+          <t>[['G', 'A:min7', 'G/3', 'C', 'G', 'A:min7', 'G/3']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(235.32, 237.58)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:06.571000', '0:00:20.792000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:10.107052', '0:00:20.323832')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_155</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.3314393939393939</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>isophonics_96</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_297</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1644736842105263</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>[['D:maj', 'A:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(20.56, 26.4)]</t>
+          <t>[['G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(1.46, 11.26)]</t>
+          <t>[('0:00:27.771000', '0:00:41.282000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:00.421247', '0:00:03.083177')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_290</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_29</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2181818181818182</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C', 'F:min', 'C', 'F:min']]</t>
-        </is>
+          <t>isophonics_46</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_204</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.130977130977131</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#']]</t>
+          <t>[['D', 'G', 'D', 'D']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(10.598321, 14.743083)]</t>
+          <t>[['A', 'D', 'A', 'A']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(72.04, 74.54)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:51.584671', '0:00:57.203900')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:33.698526', '0:00:42.916848')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1833333333333333</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A#:7', 'D#:min', 'A#:maj'], ['D#:maj', 'G#:maj', 'D#:maj'], ['D#:min', 'A#:maj', 'D#:min']]</t>
-        </is>
+          <t>isophonics_288</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2291666666666667</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min/A', 'A:maj'], ['D:maj', 'G:maj', 'D:maj/F#'], ['D:min', 'A:maj', 'D:min']]</t>
+          <t>[['A', 'E', 'B']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(13.86, 18.62), (127.6, 132.4), (0.78, 5.98)]</t>
+          <t>[['G:maj', 'D:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(37.12, 40.3), (75.8, 79.6), (10.38, 16.32)]</t>
+          <t>[('0:00:03.071405', '0:00:11.233219')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:01:03.560000', '0:01:10.960000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_121</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.0882943143812709</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'G:maj', 'E:min']]</t>
-        </is>
+          <t>isophonics_96</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4166666666666666</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['E', 'E/7', 'C#:min']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(8.28, 15.8)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(10.501791, 15.122562)]</t>
+          <t>[('0:00:11.384000', '0:00:18.837000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
-        </is>
-      </c>
+          <t>[('0:00:52.740000', '0:01:04.440000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_287</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.06995192307692308</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>isophonics_127</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4714285714285714</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A/3', 'D', 'A']]</t>
+          <t>[['D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(18.26, 24.82)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(65.81034, 71.679931)]</t>
+          <t>[('0:00:01.014823', '0:00:13.657911')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:02:22.140000', '0:02:27.860000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_217</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_161</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3517156862745098</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G', 'D', 'G', 'D', 'G', 'D', 'G']]</t>
-        </is>
+          <t>isophonics_140</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5111111111111111</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj']]</t>
+          <t>[['G', 'C', 'G', 'C']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(25.606371, 42.394399)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(11.86, 16.52)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+          <t>[('0:00:00.465952', '0:00:06.886543')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:02:22.140000', '0:02:27.860000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>mid</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>schubert-winterreise_186</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>isophonics_81</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.225</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
-        </is>
+      <c r="D11" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['B', 'E/5', 'B']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(118.44, 121.68)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(58.625147, 64.604285)]</t>
+          <t>[('0:00:29.020000', '0:00:40.820000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
+          <t>[('0:01:53.020000', '0:01:54.760000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1987179487179487</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
-        </is>
+          <t>schubert-winterreise_5</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_149</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'B']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(75.8, 79.6)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(19.602494, 26.162131)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+          <t>[('0:00:10.940000', '0:01:05.780000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:10.560000', '0:01:09.420000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_18</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_196</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.09973045822102425</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_42</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D/5', 'A', 'D/5']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(0.78, 23.84)]</t>
+          <t>[['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(31.898979, 34.035215)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:01:01.440000', '0:01:04.220000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:20.540000', '0:00:23.160000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1426282051282051</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C#:maj', 'G#:7', 'C#:maj', 'G#:7', 'C#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_213</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_106</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(0.48, 9.64)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(70.98, 87.2)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:01:28.180000', '0:01:49.560000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:01:26.980000', '0:01:51.200000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_101</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2730769230769231</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_120</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_191</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C#', 'F#/5', 'C#']]</t>
+          <t>[['A#:min', 'F:7/C', 'A#:min/C#', 'A#:maj/D', 'D#:min', 'C:hdim7', 'A#:min', 'B:maj', 'F#:maj/A#', 'F:7', 'F#:maj'], ['A#:7/G#', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min', 'A#:min/F']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(18.12, 24.54)]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(31.46941, 118.925813)]</t>
+          <t>[('0:00:02.600000', '0:00:10.700000'), ('0:01:12.880000', '0:01:20.600000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:00.680000', '0:00:10.700000'), ('0:01:25.700000', '0:01:34.320000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.6708333333333334</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
-        </is>
+          <t>schubert-winterreise_125</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_190</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(25.26, 52.58)]</t>
+          <t>[['D#:(3,b5,b7)/G', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(116.7, 119.48)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_280</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_181</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.115546218487395</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['E', 'B:7', 'E'], ['E/5', 'B', 'E']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj'], ['D#:maj', 'A#:maj', 'D#:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(61.683832, 65.956303), (30.035034, 41.761111)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(65.28, 71.0), (2.56, 21.44)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:48.440000', '0:00:53.480000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:41', '0:00:45.320000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
